--- a/VoxEMG-v3.1/EMGSensor3.1_bom.xlsx
+++ b/VoxEMG-v3.1/EMGSensor3.1_bom.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/courtneyreed/Desktop/VoxEMG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/courtneyreed/Desktop/voxEMG/VoxEMG-v3.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29D8C0D-E891-124F-BEB7-3B832F4DCFD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C324BABC-DF4C-8040-9549-3594D83E15E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -565,7 +565,7 @@
   <dimension ref="A1:Z1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -666,7 +666,7 @@
         <v>47</v>
       </c>
       <c r="B3" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>52</v>
